--- a/3_output/KEGG_sig.xlsx
+++ b/3_output/KEGG_sig.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="DT vs PBS" sheetId="1" r:id="rId1"/>
-    <sheet name="Treg vs PBS" sheetId="2" r:id="rId2"/>
-    <sheet name="Treg vs DT" sheetId="3" r:id="rId3"/>
+    <sheet name="DT vs veh" sheetId="1" r:id="rId1"/>
+    <sheet name="DT+Treg vs veh" sheetId="2" r:id="rId2"/>
+    <sheet name="DT+Treg vs DT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -457,17 +457,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F2">
-        <v>1.914839736603944e-05</v>
+        <v>1.917565574867371e-05</v>
       </c>
       <c r="G2">
-        <v>0.004502051973490098</v>
+        <v>0.004508384029256892</v>
       </c>
       <c r="H2">
-        <v>0.004193505435359955</v>
+        <v>0.004199403525926525</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <v>2.346589495637217</v>
+        <v>2.345979097354497</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -517,17 +517,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F3">
-        <v>3.23888631186338e-05</v>
+        <v>3.243441747666829e-05</v>
       </c>
       <c r="G3">
-        <v>0.004502051973490098</v>
+        <v>0.004508384029256892</v>
       </c>
       <c r="H3">
-        <v>0.004193505435359955</v>
+        <v>0.004199403525926525</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <v>2.346589495637217</v>
+        <v>2.345979097354497</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -582,17 +582,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F4">
-        <v>8.211634060026527e-05</v>
+        <v>8.226084278446349e-05</v>
       </c>
       <c r="G4">
-        <v>0.007609447562291249</v>
+        <v>0.00762283809802695</v>
       </c>
       <c r="H4">
-        <v>0.007087936767601845</v>
+        <v>0.007100409587711586</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>2.11864687139727</v>
+        <v>2.117883304141839</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -647,17 +647,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F5">
-        <v>0.0001798138377861947</v>
+        <v>0.0001799759521517347</v>
       </c>
       <c r="G5">
-        <v>0.0092175157638613</v>
+        <v>0.009225776087286945</v>
       </c>
       <c r="H5">
-        <v>0.0085857965842858</v>
+        <v>0.008593490789369893</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>2.035386110987686</v>
+        <v>2.03499709007414</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -712,17 +712,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F6">
-        <v>0.0001798138377861947</v>
+        <v>0.0001799759521517347</v>
       </c>
       <c r="G6">
-        <v>0.0092175157638613</v>
+        <v>0.009225776087286945</v>
       </c>
       <c r="H6">
-        <v>0.0085857965842858</v>
+        <v>0.008593490789369893</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>2.035386110987686</v>
+        <v>2.03499709007414</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -777,17 +777,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F7">
-        <v>0.0002189407499814306</v>
+        <v>0.0002192103794309596</v>
       </c>
       <c r="G7">
-        <v>0.0092175157638613</v>
+        <v>0.009225776087286945</v>
       </c>
       <c r="H7">
-        <v>0.0085857965842858</v>
+        <v>0.008593490789369893</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="K7">
-        <v>2.035386110987686</v>
+        <v>2.03499709007414</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -842,17 +842,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F8">
-        <v>0.0002320957206727665</v>
+        <v>0.0002323037144280885</v>
       </c>
       <c r="G8">
-        <v>0.0092175157638613</v>
+        <v>0.009225776087286945</v>
       </c>
       <c r="H8">
-        <v>0.0085857965842858</v>
+        <v>0.008593490789369893</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>2.035386110987686</v>
+        <v>2.03499709007414</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -907,17 +907,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F9">
-        <v>0.0003720789707002519</v>
+        <v>0.0003724083919974529</v>
       </c>
       <c r="G9">
-        <v>0.01292974423183375</v>
+        <v>0.01294119162191149</v>
       </c>
       <c r="H9">
-        <v>0.01204360878845552</v>
+        <v>0.01205427163570703</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>1.888410065978221</v>
+        <v>1.888025732091304</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -972,17 +972,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F10">
-        <v>0.0007299743927356337</v>
+        <v>0.0007306881056198543</v>
       </c>
       <c r="G10">
-        <v>0.02254809790894513</v>
+        <v>0.02257014370692439</v>
       </c>
       <c r="H10">
-        <v>0.02100277200151648</v>
+        <v>0.02102330689853616</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>1.646890088042807</v>
+        <v>1.646465675706217</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F11">
-        <v>0.0008482641138746079</v>
+        <v>0.0008495549940649225</v>
       </c>
       <c r="G11">
-        <v>0.0229163857649811</v>
+        <v>0.02293854243485529</v>
       </c>
       <c r="H11">
-        <v>0.02134581937972492</v>
+        <v>0.02136645755007347</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>13</v>
       </c>
       <c r="K11">
-        <v>1.639853875626803</v>
+        <v>1.639434181579059</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1102,17 +1102,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F12">
-        <v>0.000971700742064908</v>
+        <v>0.0009733938302646022</v>
       </c>
       <c r="G12">
-        <v>0.0229163857649811</v>
+        <v>0.02293854243485529</v>
       </c>
       <c r="H12">
-        <v>0.02134581937972492</v>
+        <v>0.02136645755007347</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="K12">
-        <v>1.639853875626803</v>
+        <v>1.639434181579059</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F13">
-        <v>0.0009891965078409109</v>
+        <v>0.000990152910857063</v>
       </c>
       <c r="G13">
-        <v>0.0229163857649811</v>
+        <v>0.02293854243485529</v>
       </c>
       <c r="H13">
-        <v>0.02134581937972492</v>
+        <v>0.02136645755007347</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>1.639853875626803</v>
+        <v>1.639434181579059</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1232,17 +1232,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F14">
-        <v>0.001220150399653022</v>
+        <v>0.001221558016871538</v>
       </c>
       <c r="G14">
-        <v>0.02609244700796463</v>
+        <v>0.02612254836079135</v>
       </c>
       <c r="H14">
-        <v>0.02430421038984968</v>
+        <v>0.02433224875711728</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="K14">
-        <v>1.583485189883205</v>
+        <v>1.58298445813799</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F15">
-        <v>0.002311466836602611</v>
+        <v>0.002313137282654205</v>
       </c>
       <c r="G15">
-        <v>0.04589912718396614</v>
+        <v>0.04593229746984778</v>
       </c>
       <c r="H15">
-        <v>0.04275344675219868</v>
+        <v>0.04278434372428078</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>1.338195572911351</v>
+        <v>1.337881831230823</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1362,17 +1362,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F16">
-        <v>0.002980406934335004</v>
+        <v>0.002983429875789102</v>
       </c>
       <c r="G16">
-        <v>0.05523687518300874</v>
+        <v>0.0552929003646247</v>
       </c>
       <c r="H16">
-        <v>0.05145123549799375</v>
+        <v>0.05150342101362239</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="K16">
-        <v>1.25777089796382</v>
+        <v>1.257330628738869</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1427,17 +1427,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F17">
-        <v>0.004313165483802803</v>
+        <v>0.004315716288945614</v>
       </c>
       <c r="G17">
-        <v>0.07494125028107371</v>
+        <v>0.07498557052043003</v>
       </c>
       <c r="H17">
-        <v>0.06980517822470327</v>
+        <v>0.06984646099214611</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="K17">
-        <v>1.125279065637182</v>
+        <v>1.125022299891775</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F18">
-        <v>0.006058997462484227</v>
+        <v>0.006065389928469733</v>
       </c>
       <c r="G18">
-        <v>0.09806037951698318</v>
+        <v>0.09817852579322092</v>
       </c>
       <c r="H18">
-        <v>0.09133984612335427</v>
+        <v>0.09144989528637769</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <v>1.008506430263687</v>
+        <v>1.007983493367501</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1557,17 +1557,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F19">
-        <v>0.006349233206135602</v>
+        <v>0.006356882965028693</v>
       </c>
       <c r="G19">
-        <v>0.09806037951698318</v>
+        <v>0.09817852579322092</v>
       </c>
       <c r="H19">
-        <v>0.09133984612335427</v>
+        <v>0.09144989528637769</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="K19">
-        <v>1.008506430263687</v>
+        <v>1.007983493367501</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1622,17 +1622,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F20">
-        <v>0.006727386883292046</v>
+        <v>0.006733883476979991</v>
       </c>
       <c r="G20">
-        <v>0.09843229229237836</v>
+        <v>0.09852734771581249</v>
       </c>
       <c r="H20">
-        <v>0.09168626998835698</v>
+        <v>0.09177481082199877</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="K20">
-        <v>1.00686240092153</v>
+        <v>1.00644320794295</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1687,17 +1687,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F21">
-        <v>0.008438808508982593</v>
+        <v>0.008449346044309991</v>
       </c>
       <c r="G21">
-        <v>0.117299438274858</v>
+        <v>0.1174459100159089</v>
       </c>
       <c r="H21">
-        <v>0.1092603628005115</v>
+        <v>0.1093967961526452</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="K21">
-        <v>0.9307040676348</v>
+        <v>0.9301621026705392</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F22">
-        <v>0.009234107222987505</v>
+        <v>0.009247341709563046</v>
       </c>
       <c r="G22">
-        <v>0.1215756910696168</v>
+        <v>0.1217087938063237</v>
       </c>
       <c r="H22">
-        <v>0.1132435441239142</v>
+        <v>0.1133675247116836</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="K22">
-        <v>0.9151532531036617</v>
+        <v>0.9146780416254197</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1817,17 +1817,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F23">
-        <v>0.009621097854430107</v>
+        <v>0.009631631164529213</v>
       </c>
       <c r="G23">
-        <v>0.1215756910696168</v>
+        <v>0.1217087938063237</v>
       </c>
       <c r="H23">
-        <v>0.1132435441239142</v>
+        <v>0.1133675247116836</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>0.9151532531036617</v>
+        <v>0.9146780416254197</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1882,17 +1882,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F24">
-        <v>0.01022824973663861</v>
+        <v>0.01023698959876024</v>
       </c>
       <c r="G24">
-        <v>0.1236284098602407</v>
+        <v>0.1237340481937108</v>
       </c>
       <c r="H24">
-        <v>0.1151555805589519</v>
+        <v>0.1152539790066371</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>0.9078817167248845</v>
+        <v>0.9075107780751513</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1947,17 +1947,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F25">
-        <v>0.01136345526608469</v>
+        <v>0.011374892342548</v>
       </c>
       <c r="G25">
-        <v>0.131626690165481</v>
+        <v>0.1317591696345144</v>
       </c>
       <c r="H25">
-        <v>0.1226057015551243</v>
+        <v>0.1227291015906495</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <v>0.8806560391695779</v>
+        <v>0.8802191508167835</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2012,17 +2012,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F26">
-        <v>0.01302993080249032</v>
+        <v>0.01303854470760689</v>
       </c>
       <c r="G26">
-        <v>0.1448928305236924</v>
+        <v>0.1449886171485886</v>
       </c>
       <c r="H26">
-        <v>0.1349626516805313</v>
+        <v>0.1350518736030019</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>0.8389531034248312</v>
+        <v>0.838666092272647</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2167,17 +2167,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F2">
-        <v>0.0001523894122304295</v>
+        <v>0.0001526114206987239</v>
       </c>
       <c r="G2">
-        <v>0.04739310720366357</v>
+        <v>0.04746215183730313</v>
       </c>
       <c r="H2">
-        <v>0.04716051283762765</v>
+        <v>0.04722921861623666</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <v>1.324284816998679</v>
+        <v>1.323652575644986</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -2322,17 +2322,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F2">
-        <v>5.091893123941009e-06</v>
+        <v>5.096696880434185e-06</v>
       </c>
       <c r="G2">
-        <v>0.0006313947473686851</v>
+        <v>0.0006319904131738389</v>
       </c>
       <c r="H2">
-        <v>0.0005788678498796094</v>
+        <v>0.0005794139611440968</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>3.199699035364746</v>
+        <v>3.199289509593057</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -2382,17 +2382,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F3">
-        <v>0.001055257059405687</v>
+        <v>0.001055759435675504</v>
       </c>
       <c r="G3">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H3">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -2447,17 +2447,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F4">
-        <v>0.001055257059405687</v>
+        <v>0.001055759435675504</v>
       </c>
       <c r="G4">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H4">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -2512,17 +2512,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F5">
-        <v>0.001198410373623908</v>
+        <v>0.001198979649066336</v>
       </c>
       <c r="G5">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H5">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -2577,17 +2577,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F6">
-        <v>0.001353253293964309</v>
+        <v>0.001353894711080967</v>
       </c>
       <c r="G6">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H6">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -2642,17 +2642,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F7">
-        <v>0.001520133295097632</v>
+        <v>0.001520852224436363</v>
       </c>
       <c r="G7">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H7">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F8">
-        <v>0.001756191659412717</v>
+        <v>0.001757846304224229</v>
       </c>
       <c r="G8">
-        <v>0.03110968082388242</v>
+        <v>0.0311389916748292</v>
       </c>
       <c r="H8">
-        <v>0.02852160890474789</v>
+        <v>0.02854848133176191</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>1.507104444601284</v>
+        <v>1.506695454617855</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -2772,17 +2772,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F9">
-        <v>0.0041896049635873</v>
+        <v>0.004192977833011918</v>
       </c>
       <c r="G9">
-        <v>0.06347417598402839</v>
+        <v>0.0635183901023383</v>
       </c>
       <c r="H9">
-        <v>0.0581936418189734</v>
+        <v>0.05823417768295871</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>1.197402928389055</v>
+        <v>1.19710051779965</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F10">
-        <v>0.00460699664400206</v>
+        <v>0.004610205733234231</v>
       </c>
       <c r="G10">
-        <v>0.06347417598402839</v>
+        <v>0.0635183901023383</v>
       </c>
       <c r="H10">
-        <v>0.0581936418189734</v>
+        <v>0.05823417768295871</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>1.197402928389055</v>
+        <v>1.19710051779965</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2902,17 +2902,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F11">
-        <v>0.007351758227038159</v>
+        <v>0.0073559655591904</v>
       </c>
       <c r="G11">
-        <v>0.09116180201527317</v>
+        <v>0.09121397293396095</v>
       </c>
       <c r="H11">
-        <v>0.08357788300211802</v>
+        <v>0.08362571372553296</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="K11">
-        <v>1.040187098612829</v>
+        <v>1.039938627644289</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -2967,17 +2967,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>6037</t>
         </is>
       </c>
       <c r="F12">
-        <v>0.01278291066006241</v>
+        <v>0.01278857342509136</v>
       </c>
       <c r="G12">
-        <v>0.1440982656225217</v>
+        <v>0.1441621004283026</v>
       </c>
       <c r="H12">
-        <v>0.1321104642379655</v>
+        <v>0.1321689885081212</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>0.8413412463553467</v>
+        <v>0.8411488986889852</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>

--- a/3_output/KEGG_sig.xlsx
+++ b/3_output/KEGG_sig.xlsx
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>1.917565574867371e-05</v>
+        <v>1.917565574867371E-05</v>
       </c>
       <c r="G2">
         <v>0.004508384029256892</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>3.243441747666829e-05</v>
+        <v>3.243441747666829E-05</v>
       </c>
       <c r="G3">
         <v>0.004508384029256892</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>8.226084278446349e-05</v>
+        <v>8.226084278446349E-05</v>
       </c>
       <c r="G4">
         <v>0.00762283809802695</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>5.096696880434185e-06</v>
+        <v>5.096696880434185E-06</v>
       </c>
       <c r="G2">
         <v>0.0006319904131738389</v>
